--- a/Regresion.xlsx
+++ b/Regresion.xlsx
@@ -436,39 +436,39 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Maxerror</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>MeanAE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MAX_ERROR</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>MSE</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MedianAE</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>coeficienteCorrelación</t>
+        </is>
+      </c>
       <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Iteracion</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Tecnica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Iteracion</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -478,16 +478,16 @@
         <v>-5.684341886080801e-14</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>-2.715852234460828e-14</v>
       </c>
       <c r="D2" t="n">
-        <v>-10</v>
+        <v>-3.025722022712086e-14</v>
       </c>
       <c r="E2" t="n">
-        <v>-24.31597931500165</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>-7.640000000000004</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -504,22 +504,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>-8.397323240801184e-15</v>
       </c>
       <c r="D3" t="n">
-        <v>-3</v>
+        <v>-1.544882782424705e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.475236502899865</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>-6.681818181818184</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
         <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -530,22 +530,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>-6.459479416000911e-15</v>
       </c>
       <c r="D4" t="n">
-        <v>-3</v>
+        <v>-1.354951833214944e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.528298362577879</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>-6.463636363636363</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
         <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -556,22 +556,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>-2.131628207280301e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>-3</v>
+        <v>-2.461392238570962e-14</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.305218590896127</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.359090909090908</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
+        <v>3</v>
+      </c>
+      <c r="H5" t="n">
         <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -582,22 +582,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>-2.002438618960282e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>-3</v>
+        <v>-2.385638878378466e-14</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.7840894395020442</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="F6" t="n">
-        <v>-5.999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
         <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -608,22 +608,22 @@
         <v>-8.526512829121202e-14</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>-6.201100239360874e-14</v>
       </c>
       <c r="D7" t="n">
-        <v>-3</v>
+        <v>-6.355287432313019e-14</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.7971258003714261</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.777272727272727</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
         <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -634,22 +634,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>-2.325412589760328e-14</v>
       </c>
       <c r="D8" t="n">
-        <v>-3</v>
+        <v>-2.570840347667885e-14</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.316830218499428</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="F8" t="n">
-        <v>-5.545454545454548</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
         <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -660,22 +660,22 @@
         <v>-2.842170943040401e-14</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>-3.875687649600546e-15</v>
       </c>
       <c r="D9" t="n">
-        <v>-3</v>
+        <v>-1.049541176990937e-14</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.689437745793097</v>
+        <v>-0</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.318181818181817</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
         <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -686,22 +686,22 @@
         <v>-5.684341886080801e-14</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>-3.165144913840446e-14</v>
       </c>
       <c r="D10" t="n">
-        <v>-3</v>
+        <v>-3.346484165363475e-14</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.981345735782519</v>
+        <v>-2.842170943040401e-14</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.181818181818182</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
         <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -712,22 +712,22 @@
         <v>-5.684341886080801e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>-4.844609562000683e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.47999999999999</v>
+        <v>-5.087839623227993e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>-23.94081822696538</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.486363636363635</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
+        <v>9</v>
+      </c>
+      <c r="H11" t="n">
         <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -735,25 +735,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.715852234460828e-14</v>
+        <v>-16.92000000000002</v>
       </c>
       <c r="C12" t="n">
-        <v>-16.92000000000002</v>
+        <v>-8.960888888888888</v>
       </c>
       <c r="D12" t="n">
+        <v>-9.318168632658818</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-10</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.1003967464580156</v>
       </c>
-      <c r="E12" t="n">
-        <v>-20.7605608867695</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-8.192842404603345</v>
-      </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -761,19 +761,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-8.397323240801184e-15</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.132727272727274</v>
       </c>
       <c r="D13" t="n">
+        <v>-3.30538953831466</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.8624802542559551</v>
-      </c>
-      <c r="E13" t="n">
-        <v>-6.206769865554762</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-7.199242384382604</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -787,25 +787,25 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-6.459479416000911e-15</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.147272727272729</v>
       </c>
       <c r="D14" t="n">
+        <v>-3.306797406995037</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.8456992402595112</v>
       </c>
-      <c r="E14" t="n">
-        <v>-0.7135664664057941</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-6.968109173552423</v>
-      </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -813,25 +813,25 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.131628207280301e-14</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.177272727272727</v>
       </c>
       <c r="D15" t="n">
+        <v>-3.335696737905399</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.8298838401211984</v>
       </c>
-      <c r="E15" t="n">
-        <v>-0.8011773481057958</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-6.823555458183738</v>
-      </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -839,25 +839,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-2.002438618960282e-14</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C16" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.145454545454549</v>
       </c>
       <c r="D16" t="n">
+        <v>-3.298076574445947</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.8275290904045807</v>
       </c>
-      <c r="E16" t="n">
-        <v>-0.5039637489943942</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-6.44994714566082</v>
-      </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -865,25 +865,25 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-6.201100239360874e-14</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C17" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.026363636363635</v>
       </c>
       <c r="D17" t="n">
+        <v>-3.188177022574612</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.8408007717252403</v>
       </c>
-      <c r="E17" t="n">
-        <v>-0.516929113365336</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-6.187303715894935</v>
-      </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -891,25 +891,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2.325412589760328e-14</v>
+        <v>-5.639999999999986</v>
       </c>
       <c r="C18" t="n">
-        <v>-5.639999999999986</v>
+        <v>-3.16</v>
       </c>
       <c r="D18" t="n">
+        <v>-3.320766614667598</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.8372266001093636</v>
       </c>
-      <c r="E18" t="n">
-        <v>-0.7991081092764034</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-5.897765370344635</v>
-      </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -917,25 +917,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-3.875687649600546e-15</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.055454545454547</v>
       </c>
       <c r="D19" t="n">
+        <v>-3.203095094095427</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.8627770330448632</v>
       </c>
-      <c r="E19" t="n">
-        <v>-0.8038299741693891</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-5.60129855074209</v>
-      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -943,25 +943,25 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-3.165144913840446e-14</v>
+        <v>-5.640000000000015</v>
       </c>
       <c r="C20" t="n">
-        <v>-5.640000000000015</v>
+        <v>-3.009999999999998</v>
       </c>
       <c r="D20" t="n">
+        <v>-3.185575443949003</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-3</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.8804829854949106</v>
       </c>
-      <c r="E20" t="n">
-        <v>-6.45495263087831</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-5.401851534427801</v>
-      </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H20" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -969,25 +969,25 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-4.844609562000683e-14</v>
+        <v>-15.56</v>
       </c>
       <c r="C21" t="n">
-        <v>-15.56</v>
+        <v>-8.77272727272727</v>
       </c>
       <c r="D21" t="n">
+        <v>-9.081785967728832</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-9.47999999999999</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.1598152508351915</v>
       </c>
-      <c r="E21" t="n">
-        <v>-20.58022371216049</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-7.987774749862781</v>
-      </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -995,25 +995,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-3.025722022712086e-14</v>
+        <v>-45.77060358631505</v>
       </c>
       <c r="C22" t="n">
-        <v>-8.960888888888888</v>
+        <v>-22.98046225380791</v>
       </c>
       <c r="D22" t="n">
-        <v>-45.77060358631505</v>
+        <v>-24.31597931500165</v>
       </c>
       <c r="E22" t="n">
+        <v>-20.7605608867695</v>
+      </c>
+      <c r="F22" t="n">
         <v>-5.125949560369713</v>
       </c>
-      <c r="F22" t="n">
-        <v>-8.200000000000017</v>
-      </c>
       <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
         <v>2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1021,25 +1021,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.544882782424705e-14</v>
+        <v>-20.29127623587129</v>
       </c>
       <c r="C23" t="n">
-        <v>-3.132727272727274</v>
+        <v>-7.444225758559836</v>
       </c>
       <c r="D23" t="n">
-        <v>-20.29127623587129</v>
+        <v>-8.475236502899865</v>
       </c>
       <c r="E23" t="n">
+        <v>-6.206769865554762</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.09588553724048798</v>
       </c>
-      <c r="F23" t="n">
-        <v>-5</v>
-      </c>
       <c r="G23" t="n">
+        <v>1</v>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1047,19 +1047,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.354951833214944e-14</v>
+        <v>-9.83478042469082</v>
       </c>
       <c r="C24" t="n">
-        <v>-3.147272727272729</v>
+        <v>-1.455927107707222</v>
       </c>
       <c r="D24" t="n">
-        <v>-9.83478042469082</v>
+        <v>-2.528298362577879</v>
       </c>
       <c r="E24" t="n">
+        <v>-0.7135664664057941</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.9097993775677993</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-5</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1073,25 +1073,25 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-2.461392238570962e-14</v>
+        <v>-4.615961297108129</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.177272727272727</v>
+        <v>-1.064819514988298</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.615961297108129</v>
+        <v>-1.305218590896127</v>
       </c>
       <c r="E25" t="n">
+        <v>-0.8011773481057958</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.9739541249853477</v>
       </c>
-      <c r="F25" t="n">
-        <v>-5</v>
-      </c>
       <c r="G25" t="n">
+        <v>3</v>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1099,25 +1099,25 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.385638878378466e-14</v>
+        <v>-2.427068023113407</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.145454545454549</v>
+        <v>-0.596628672766239</v>
       </c>
       <c r="D26" t="n">
-        <v>-2.427068023113407</v>
+        <v>-0.7840894395020442</v>
       </c>
       <c r="E26" t="n">
+        <v>-0.5039637489943942</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.990251773906709</v>
       </c>
-      <c r="F26" t="n">
-        <v>-5</v>
-      </c>
       <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1125,25 +1125,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-6.355287432313019e-14</v>
+        <v>-2.431103371349053</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.026363636363635</v>
+        <v>-0.6138776758146097</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.431103371349053</v>
+        <v>-0.7971258003714261</v>
       </c>
       <c r="E27" t="n">
+        <v>-0.516929113365336</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.9900480121912716</v>
       </c>
-      <c r="F27" t="n">
-        <v>-5</v>
-      </c>
       <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
         <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1151,25 +1151,25 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2.570840347667885e-14</v>
+        <v>-4.639638637354437</v>
       </c>
       <c r="C28" t="n">
-        <v>-3.16</v>
+        <v>-1.07468865337831</v>
       </c>
       <c r="D28" t="n">
-        <v>-4.639638637354437</v>
+        <v>-1.316830218499428</v>
       </c>
       <c r="E28" t="n">
+        <v>-0.7991081092764034</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.9744043422361969</v>
       </c>
-      <c r="F28" t="n">
-        <v>-5</v>
-      </c>
       <c r="G28" t="n">
+        <v>6</v>
+      </c>
+      <c r="H28" t="n">
         <v>2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1177,25 +1177,25 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.049541176990937e-14</v>
+        <v>-10.09139179228799</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.055454545454547</v>
+        <v>-1.61341760197217</v>
       </c>
       <c r="D29" t="n">
-        <v>-10.09139179228799</v>
+        <v>-2.689437745793097</v>
       </c>
       <c r="E29" t="n">
+        <v>-0.8038299741693891</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.9032590980239188</v>
       </c>
-      <c r="F29" t="n">
-        <v>-5</v>
-      </c>
       <c r="G29" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" t="n">
         <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1203,25 +1203,25 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-3.346484165363475e-14</v>
+        <v>-20.56562952784975</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.009999999999998</v>
+        <v>-7.822568544095123</v>
       </c>
       <c r="D30" t="n">
-        <v>-20.56562952784975</v>
+        <v>-8.981345735782519</v>
       </c>
       <c r="E30" t="n">
+        <v>-6.45495263087831</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.04997118952202328</v>
       </c>
-      <c r="F30" t="n">
-        <v>-5</v>
-      </c>
       <c r="G30" t="n">
+        <v>8</v>
+      </c>
+      <c r="H30" t="n">
         <v>2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1229,25 +1229,25 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.087839623227993e-14</v>
+        <v>-44.98368830890166</v>
       </c>
       <c r="C31" t="n">
-        <v>-8.77272727272727</v>
+        <v>-22.62944094074049</v>
       </c>
       <c r="D31" t="n">
-        <v>-44.98368830890166</v>
+        <v>-23.94081822696538</v>
       </c>
       <c r="E31" t="n">
+        <v>-20.58022371216049</v>
+      </c>
+      <c r="F31" t="n">
         <v>-4.838620494324476</v>
       </c>
-      <c r="F31" t="n">
-        <v>-7.399999999999977</v>
-      </c>
       <c r="G31" t="n">
+        <v>9</v>
+      </c>
+      <c r="H31" t="n">
         <v>2</v>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -1255,25 +1255,25 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-14.80000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.318168632658818</v>
+        <v>-7.640000000000004</v>
       </c>
       <c r="D32" t="n">
-        <v>-22.98046225380791</v>
+        <v>-8.192842404603345</v>
       </c>
       <c r="E32" t="n">
-        <v>-14.80000000000001</v>
+        <v>-8.200000000000017</v>
       </c>
       <c r="F32" t="n">
         <v>0.3045609265521735</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>3</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1281,25 +1281,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-0</v>
+        <v>-10</v>
       </c>
       <c r="C33" t="n">
-        <v>-3.30538953831466</v>
+        <v>-6.681818181818184</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.444225758559836</v>
+        <v>-7.199242384382604</v>
       </c>
       <c r="E33" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F33" t="n">
         <v>0.3476309398144571</v>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>3</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1307,25 +1307,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>-10</v>
       </c>
       <c r="C34" t="n">
-        <v>-3.306797406995037</v>
+        <v>-6.463636363636363</v>
       </c>
       <c r="D34" t="n">
-        <v>-1.455927107707222</v>
+        <v>-6.968109173552423</v>
       </c>
       <c r="E34" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F34" t="n">
         <v>0.3148545460959478</v>
       </c>
       <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
         <v>3</v>
-      </c>
-      <c r="H34" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1333,16 +1333,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-10</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.335696737905399</v>
+        <v>-6.359090909090908</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.064819514988298</v>
+        <v>-6.823555458183738</v>
       </c>
       <c r="E35" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F35" t="n">
         <v>0.2881411292144009</v>
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-10</v>
       </c>
       <c r="C36" t="n">
-        <v>-3.298076574445947</v>
+        <v>-5.999999999999997</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.596628672766239</v>
+        <v>-6.44994714566082</v>
       </c>
       <c r="E36" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F36" t="n">
         <v>0.3403604363290419</v>
       </c>
       <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
         <v>3</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -1385,25 +1385,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-10</v>
       </c>
       <c r="C37" t="n">
-        <v>-3.188177022574612</v>
+        <v>-5.777272727272727</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.6138776758146097</v>
+        <v>-6.187303715894935</v>
       </c>
       <c r="E37" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F37" t="n">
         <v>0.4004036607114254</v>
       </c>
       <c r="G37" t="n">
+        <v>5</v>
+      </c>
+      <c r="H37" t="n">
         <v>3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -1411,25 +1411,25 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-10</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.320766614667598</v>
+        <v>-5.545454545454548</v>
       </c>
       <c r="D38" t="n">
-        <v>-1.07468865337831</v>
+        <v>-5.897765370344635</v>
       </c>
       <c r="E38" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F38" t="n">
         <v>0.4865694473798091</v>
       </c>
       <c r="G38" t="n">
+        <v>6</v>
+      </c>
+      <c r="H38" t="n">
         <v>3</v>
-      </c>
-      <c r="H38" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1437,25 +1437,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-0</v>
+        <v>-10</v>
       </c>
       <c r="C39" t="n">
-        <v>-3.203095094095427</v>
+        <v>-5.318181818181817</v>
       </c>
       <c r="D39" t="n">
-        <v>-1.61341760197217</v>
+        <v>-5.60129855074209</v>
       </c>
       <c r="E39" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F39" t="n">
         <v>0.5803718801010409</v>
       </c>
       <c r="G39" t="n">
+        <v>7</v>
+      </c>
+      <c r="H39" t="n">
         <v>3</v>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -1463,25 +1463,25 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-10</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.185575443949003</v>
+        <v>-5.181818181818182</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.822568544095123</v>
+        <v>-5.401851534427801</v>
       </c>
       <c r="E40" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F40" t="n">
         <v>0.6563318905868152</v>
       </c>
       <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
         <v>3</v>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -1489,25 +1489,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-13.19999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>-9.081785967728832</v>
+        <v>-7.486363636363635</v>
       </c>
       <c r="D41" t="n">
-        <v>-22.62944094074049</v>
+        <v>-7.987774749862781</v>
       </c>
       <c r="E41" t="n">
-        <v>-13.19999999999999</v>
+        <v>-7.399999999999977</v>
       </c>
       <c r="F41" t="n">
         <v>0.3500441036540055</v>
       </c>
       <c r="G41" t="n">
+        <v>9</v>
+      </c>
+      <c r="H41" t="n">
         <v>3</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Regresion.xlsx
+++ b/Regresion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-1419.832643457397</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.715852234460828e-14</v>
+        <v>-350.8526388090384</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.025722022712086e-14</v>
+        <v>-439.6297894308731</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-294.7858328661102</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.4843772611353772</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -501,19 +501,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-2570.0869888558</v>
       </c>
       <c r="C3" t="n">
-        <v>-8.397323240801184e-15</v>
+        <v>-366.3603743769817</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.544882782424705e-14</v>
+        <v>-490.3029488681936</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>-310.078874671422</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0.3210488855834018</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -527,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-2538.538231601671</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.459479416000911e-15</v>
+        <v>-354.6154970695304</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.354951833214944e-14</v>
+        <v>-553.3401172659136</v>
       </c>
       <c r="E4" t="n">
-        <v>-0</v>
+        <v>-228.6722163031591</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>-0.3749317787462478</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -553,19 +553,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-1495.591924105226</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.131628207280301e-14</v>
+        <v>-246.1529964095182</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.461392238570962e-14</v>
+        <v>-303.0657808241638</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-220.1577482522121</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0.4079226852336892</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -579,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-2319.291117538055</v>
       </c>
       <c r="C6" t="n">
-        <v>-2.002438618960282e-14</v>
+        <v>-301.8220416365249</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.385638878378466e-14</v>
+        <v>-379.7516471535321</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-262.5921307584696</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0.5273951729550811</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -605,19 +605,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-8.526512829121202e-14</v>
+        <v>-3187.290828875733</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.201100239360874e-14</v>
+        <v>-355.9807588842343</v>
       </c>
       <c r="D7" t="n">
-        <v>-6.355287432313019e-14</v>
+        <v>-481.0429808800617</v>
       </c>
       <c r="E7" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-292.4094876291609</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>0.4654457740264556</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-2343.860155765917</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.325412589760328e-14</v>
+        <v>-475.6905356196024</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.570840347667885e-14</v>
+        <v>-552.9877363751201</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-469.3307199803013</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0.1113090308999138</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -657,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-1075.384931149022</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.875687649600546e-15</v>
+        <v>-247.1783461433658</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.049541176990937e-14</v>
+        <v>-305.6390407123687</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>-219.3452318613185</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.7225233654083687</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
@@ -683,19 +683,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-2185.322430405443</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.165144913840446e-14</v>
+        <v>-353.4401373746428</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.346484165363475e-14</v>
+        <v>-447.4872293629563</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.842170943040401e-14</v>
+        <v>-301.1339311837188</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0.3001673191404024</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -709,19 +709,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-1163.688403140851</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.844609562000683e-14</v>
+        <v>-292.520229923884</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.087839623227993e-14</v>
+        <v>-369.4135478099284</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.684341886080801e-14</v>
+        <v>-246.5209972524085</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0.6420944894333618</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -735,19 +735,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-16.92000000000002</v>
+        <v>-2438.45</v>
       </c>
       <c r="C12" t="n">
-        <v>-8.960888888888888</v>
+        <v>-435.1946725663717</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.318168632658818</v>
+        <v>-595.8069381863493</v>
       </c>
       <c r="E12" t="n">
-        <v>-10</v>
+        <v>-321.8439999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1003967464580156</v>
+        <v>0.05295863487150954</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.640000000000015</v>
+        <v>-2377.25</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.132727272727274</v>
+        <v>-460.4009645808736</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.30538953831466</v>
+        <v>-602.5317867970399</v>
       </c>
       <c r="E13" t="n">
-        <v>-3</v>
+        <v>-377.271</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8624802542559551</v>
+        <v>-0.0253435915812954</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -787,19 +787,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-5.640000000000015</v>
+        <v>-2293.646</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.147272727272729</v>
+        <v>-346.7225478158206</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.306797406995037</v>
+        <v>-546.0948810514111</v>
       </c>
       <c r="E14" t="n">
-        <v>-3</v>
+        <v>-207.9600000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8456992402595112</v>
+        <v>-0.3391617786510315</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -813,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-5.640000000000015</v>
+        <v>-1348.278</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.177272727272727</v>
+        <v>-252.9991286894924</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.335696737905399</v>
+        <v>-328.3868366401099</v>
       </c>
       <c r="E15" t="n">
-        <v>-3</v>
+        <v>-197.172</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8298838401211984</v>
+        <v>0.3048538913137054</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -839,19 +839,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-5.640000000000015</v>
+        <v>-1448.986</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.145454545454549</v>
+        <v>-297.7318630460449</v>
       </c>
       <c r="D16" t="n">
-        <v>-3.298076574445947</v>
+        <v>-383.5762315577041</v>
       </c>
       <c r="E16" t="n">
-        <v>-3</v>
+        <v>-231.8319999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8275290904045807</v>
+        <v>0.5178277671633698</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -865,19 +865,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.640000000000015</v>
+        <v>-2057.718</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.026363636363635</v>
+        <v>-370.6011818181818</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.188177022574612</v>
+        <v>-477.9661654768116</v>
       </c>
       <c r="E17" t="n">
-        <v>-3</v>
+        <v>-290.1250000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8408007717252403</v>
+        <v>0.4722620661322976</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -891,19 +891,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-5.639999999999986</v>
+        <v>-2121.642</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.16</v>
+        <v>-454.3095430932704</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.320766614667598</v>
+        <v>-553.5457642007888</v>
       </c>
       <c r="E18" t="n">
-        <v>-3</v>
+        <v>-400.51</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8372266001093636</v>
+        <v>0.1095145444271107</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -917,19 +917,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.640000000000015</v>
+        <v>-1621.632</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.055454545454547</v>
+        <v>-270.0479445100354</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.203095094095427</v>
+        <v>-362.6755732311693</v>
       </c>
       <c r="E19" t="n">
-        <v>-3</v>
+        <v>-202.8249999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8627770330448632</v>
+        <v>0.6092982334159975</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -943,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-5.640000000000015</v>
+        <v>-2079.31</v>
       </c>
       <c r="C20" t="n">
-        <v>-3.009999999999998</v>
+        <v>-371.2619079102715</v>
       </c>
       <c r="D20" t="n">
-        <v>-3.185575443949003</v>
+        <v>-465.3842527958249</v>
       </c>
       <c r="E20" t="n">
-        <v>-3</v>
+        <v>-313.9759999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8804829854949106</v>
+        <v>0.2430689932864578</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -969,19 +969,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-15.56</v>
+        <v>-1669.586</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.77272727272727</v>
+        <v>-318.6475312868949</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.081785967728832</v>
+        <v>-422.7478958933169</v>
       </c>
       <c r="E21" t="n">
-        <v>-9.47999999999999</v>
+        <v>-240.2149999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1598152508351915</v>
+        <v>0.5312884481426838</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -995,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-45.77060358631505</v>
+        <v>-2520.65</v>
       </c>
       <c r="C22" t="n">
-        <v>-22.98046225380791</v>
+        <v>-525.1105604719764</v>
       </c>
       <c r="D22" t="n">
-        <v>-24.31597931500165</v>
+        <v>-754.0903214672759</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.7605608867695</v>
+        <v>-354.09</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.125949560369713</v>
+        <v>-0.5170663299615903</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-20.29127623587129</v>
+        <v>-2475.81</v>
       </c>
       <c r="C23" t="n">
-        <v>-7.444225758559836</v>
+        <v>-506.9697638724911</v>
       </c>
       <c r="D23" t="n">
-        <v>-8.475236502899865</v>
+        <v>-678.7892981089734</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.206769865554762</v>
+        <v>-391.825</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09588553724048798</v>
+        <v>-0.3013061074186434</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1047,19 +1047,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-9.83478042469082</v>
+        <v>-2539.81</v>
       </c>
       <c r="C24" t="n">
-        <v>-1.455927107707222</v>
+        <v>-417.9547107438017</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.528298362577879</v>
+        <v>-622.8509900344503</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.7135664664057941</v>
+        <v>-275.945</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9097993775677993</v>
+        <v>-0.7420681975951222</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1073,19 +1073,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.615961297108129</v>
+        <v>-2314.15</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.064819514988298</v>
+        <v>-317.9985419126328</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.305218590896127</v>
+        <v>-423.7409094980463</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.8011773481057958</v>
+        <v>-234.07</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9739541249853477</v>
+        <v>-0.1574584358655908</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1099,19 +1099,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-2.427068023113407</v>
+        <v>-1552.93</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.596628672766239</v>
+        <v>-366.4999409681229</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7840894395020442</v>
+        <v>-471.4266163533572</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5039637489943942</v>
+        <v>-293.115</v>
       </c>
       <c r="F26" t="n">
-        <v>0.990251773906709</v>
+        <v>0.2716719803494625</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1125,19 +1125,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2.431103371349053</v>
+        <v>-2356.44</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6138776758146097</v>
+        <v>-419.693665879575</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.7971258003714261</v>
+        <v>-559.277157068369</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.516929113365336</v>
+        <v>-313.1900000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9900480121912716</v>
+        <v>0.2774329285231245</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -1151,19 +1151,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-4.639638637354437</v>
+        <v>-2323.68</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.07468865337831</v>
+        <v>-528.7455726092089</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.316830218499428</v>
+        <v>-656.1334542031501</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.7991081092764034</v>
+        <v>-469.9299999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9744043422361969</v>
+        <v>-0.2511348749567717</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1177,19 +1177,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-10.09139179228799</v>
+        <v>-1985.61</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.61341760197217</v>
+        <v>-349.7221723730814</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.689437745793097</v>
+        <v>-466.4248588851891</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.8038299741693891</v>
+        <v>-267.66</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9032590980239188</v>
+        <v>0.3537922827129193</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -1203,19 +1203,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-20.56562952784975</v>
+        <v>-2206.3</v>
       </c>
       <c r="C30" t="n">
-        <v>-7.822568544095123</v>
+        <v>-437.1080401416765</v>
       </c>
       <c r="D30" t="n">
-        <v>-8.981345735782519</v>
+        <v>-556.3928522817739</v>
       </c>
       <c r="E30" t="n">
-        <v>-6.45495263087831</v>
+        <v>-371.1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.04997118952202328</v>
+        <v>-0.0819221504989982</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1229,19 +1229,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-44.98368830890166</v>
+        <v>-2255.15</v>
       </c>
       <c r="C31" t="n">
-        <v>-22.62944094074049</v>
+        <v>-404.4559681227863</v>
       </c>
       <c r="D31" t="n">
-        <v>-23.94081822696538</v>
+        <v>-530.8787844441557</v>
       </c>
       <c r="E31" t="n">
-        <v>-20.58022371216049</v>
+        <v>-309.04</v>
       </c>
       <c r="F31" t="n">
-        <v>-4.838620494324476</v>
+        <v>0.260848457160323</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1255,19 +1255,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-14.80000000000001</v>
+        <v>-1419.832643457397</v>
       </c>
       <c r="C32" t="n">
-        <v>-7.640000000000004</v>
+        <v>-350.8526388090384</v>
       </c>
       <c r="D32" t="n">
-        <v>-8.192842404603345</v>
+        <v>-439.6297894308731</v>
       </c>
       <c r="E32" t="n">
-        <v>-8.200000000000017</v>
+        <v>-294.7858328661102</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3045609265521735</v>
+        <v>0.4843772611353772</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-10</v>
+        <v>-2570.0869888558</v>
       </c>
       <c r="C33" t="n">
-        <v>-6.681818181818184</v>
+        <v>-366.3603743769817</v>
       </c>
       <c r="D33" t="n">
-        <v>-7.199242384382604</v>
+        <v>-490.3029488681936</v>
       </c>
       <c r="E33" t="n">
-        <v>-5</v>
+        <v>-310.078874671422</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3476309398144571</v>
+        <v>0.3210488855834018</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1307,19 +1307,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-10</v>
+        <v>-2538.538231601671</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.463636363636363</v>
+        <v>-354.6154970695304</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.968109173552423</v>
+        <v>-553.3401172659136</v>
       </c>
       <c r="E34" t="n">
-        <v>-5</v>
+        <v>-228.6722163031591</v>
       </c>
       <c r="F34" t="n">
-        <v>0.3148545460959478</v>
+        <v>-0.3749317787462478</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1333,19 +1333,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-10</v>
+        <v>-1495.591924105226</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.359090909090908</v>
+        <v>-246.1529964095182</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.823555458183738</v>
+        <v>-303.0657808241638</v>
       </c>
       <c r="E35" t="n">
-        <v>-5</v>
+        <v>-220.1577482522121</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2881411292144009</v>
+        <v>0.4079226852336892</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1359,19 +1359,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-10</v>
+        <v>-2319.291117538055</v>
       </c>
       <c r="C36" t="n">
-        <v>-5.999999999999997</v>
+        <v>-301.8220416365249</v>
       </c>
       <c r="D36" t="n">
-        <v>-6.44994714566082</v>
+        <v>-379.7516471535321</v>
       </c>
       <c r="E36" t="n">
-        <v>-5</v>
+        <v>-262.5921307584696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3403604363290419</v>
+        <v>0.5273951729550811</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1385,19 +1385,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-10</v>
+        <v>-3187.290828875733</v>
       </c>
       <c r="C37" t="n">
-        <v>-5.777272727272727</v>
+        <v>-355.9807588842343</v>
       </c>
       <c r="D37" t="n">
-        <v>-6.187303715894935</v>
+        <v>-481.0429808800617</v>
       </c>
       <c r="E37" t="n">
-        <v>-5</v>
+        <v>-292.4094876291609</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4004036607114254</v>
+        <v>0.4654457740264556</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -1411,19 +1411,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-10</v>
+        <v>-2343.860155765917</v>
       </c>
       <c r="C38" t="n">
-        <v>-5.545454545454548</v>
+        <v>-475.6905356196024</v>
       </c>
       <c r="D38" t="n">
-        <v>-5.897765370344635</v>
+        <v>-552.9877363751201</v>
       </c>
       <c r="E38" t="n">
-        <v>-5</v>
+        <v>-469.3307199803013</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4865694473798091</v>
+        <v>0.1113090308999138</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -1437,19 +1437,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-10</v>
+        <v>-1075.384931149022</v>
       </c>
       <c r="C39" t="n">
-        <v>-5.318181818181817</v>
+        <v>-247.1783461433658</v>
       </c>
       <c r="D39" t="n">
-        <v>-5.60129855074209</v>
+        <v>-305.6390407123687</v>
       </c>
       <c r="E39" t="n">
-        <v>-5</v>
+        <v>-219.3452318613185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5803718801010409</v>
+        <v>0.7225233654083687</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -1463,19 +1463,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-10</v>
+        <v>-2185.322430405443</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.181818181818182</v>
+        <v>-353.4401373746428</v>
       </c>
       <c r="D40" t="n">
-        <v>-5.401851534427801</v>
+        <v>-447.4872293629563</v>
       </c>
       <c r="E40" t="n">
-        <v>-5</v>
+        <v>-301.1339311837188</v>
       </c>
       <c r="F40" t="n">
-        <v>0.6563318905868152</v>
+        <v>0.3001673191404024</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
@@ -1489,25 +1489,285 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-13.19999999999999</v>
+        <v>-1163.688403140851</v>
       </c>
       <c r="C41" t="n">
-        <v>-7.486363636363635</v>
+        <v>-292.520229923884</v>
       </c>
       <c r="D41" t="n">
-        <v>-7.987774749862781</v>
+        <v>-369.4135478099284</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.399999999999977</v>
+        <v>-246.5209972524085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.3500441036540055</v>
+        <v>0.6420944894333618</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1419.832643457397</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-350.8526388090384</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-439.6297894308731</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-294.7858328661102</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.4843772611353772</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-2570.0869888558</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-366.3603743769817</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-490.3029488681936</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-310.078874671422</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.3210488855834018</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-2538.538231601671</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-354.6154970695304</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-553.3401172659136</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-228.6722163031591</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.3749317787462478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-1495.591924105226</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-246.1529964095182</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-303.0657808241638</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-220.1577482522121</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.4079226852336892</v>
+      </c>
+      <c r="G45" t="n">
+        <v>3</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-2319.291117538055</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-301.8220416365249</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-379.7516471535321</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-262.5921307584696</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5273951729550811</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4</v>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-3187.290828875733</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-355.9807588842343</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-481.0429808800617</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-292.4094876291609</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.4654457740264556</v>
+      </c>
+      <c r="G47" t="n">
+        <v>5</v>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-2343.860155765917</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-475.6905356196024</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-552.9877363751201</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-469.3307199803013</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1113090308999138</v>
+      </c>
+      <c r="G48" t="n">
+        <v>6</v>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-1075.384931149022</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-247.1783461433658</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-305.6390407123687</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-219.3452318613185</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.7225233654083687</v>
+      </c>
+      <c r="G49" t="n">
+        <v>7</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-2185.322430405443</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-353.4401373746428</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-447.4872293629563</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-301.1339311837188</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.3001673191404024</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-1163.688403140851</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-292.520229923884</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-369.4135478099284</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-246.5209972524085</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.6420944894333618</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9</v>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Regresion.xlsx
+++ b/Regresion.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="validacionCruzada" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="K vecinos más cercanos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1419.832643457397</v>
+        <v>-2438.45</v>
       </c>
       <c r="C2" t="n">
-        <v>-350.8526388090384</v>
+        <v>-435.1946725663717</v>
       </c>
       <c r="D2" t="n">
-        <v>-439.6297894308731</v>
+        <v>-595.8069381863493</v>
       </c>
       <c r="E2" t="n">
-        <v>-294.7858328661102</v>
+        <v>-321.8439999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4843772611353772</v>
+        <v>0.05295863487150954</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -501,19 +501,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2570.0869888558</v>
+        <v>-2377.25</v>
       </c>
       <c r="C3" t="n">
-        <v>-366.3603743769817</v>
+        <v>-460.4009645808736</v>
       </c>
       <c r="D3" t="n">
-        <v>-490.3029488681936</v>
+        <v>-602.5317867970399</v>
       </c>
       <c r="E3" t="n">
-        <v>-310.078874671422</v>
+        <v>-377.271</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3210488855834018</v>
+        <v>-0.0253435915812954</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -527,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2538.538231601671</v>
+        <v>-2293.646</v>
       </c>
       <c r="C4" t="n">
-        <v>-354.6154970695304</v>
+        <v>-346.7225478158206</v>
       </c>
       <c r="D4" t="n">
-        <v>-553.3401172659136</v>
+        <v>-546.0948810514111</v>
       </c>
       <c r="E4" t="n">
-        <v>-228.6722163031591</v>
+        <v>-207.9600000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3749317787462478</v>
+        <v>-0.3391617786510315</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -553,19 +553,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1495.591924105226</v>
+        <v>-1348.278</v>
       </c>
       <c r="C5" t="n">
-        <v>-246.1529964095182</v>
+        <v>-252.9991286894924</v>
       </c>
       <c r="D5" t="n">
-        <v>-303.0657808241638</v>
+        <v>-328.3868366401099</v>
       </c>
       <c r="E5" t="n">
-        <v>-220.1577482522121</v>
+        <v>-197.172</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4079226852336892</v>
+        <v>0.3048538913137054</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -579,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2319.291117538055</v>
+        <v>-1448.986</v>
       </c>
       <c r="C6" t="n">
-        <v>-301.8220416365249</v>
+        <v>-297.7318630460449</v>
       </c>
       <c r="D6" t="n">
-        <v>-379.7516471535321</v>
+        <v>-383.5762315577041</v>
       </c>
       <c r="E6" t="n">
-        <v>-262.5921307584696</v>
+        <v>-231.8319999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5273951729550811</v>
+        <v>0.5178277671633698</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -605,19 +605,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-3187.290828875733</v>
+        <v>-2057.718</v>
       </c>
       <c r="C7" t="n">
-        <v>-355.9807588842343</v>
+        <v>-370.6011818181818</v>
       </c>
       <c r="D7" t="n">
-        <v>-481.0429808800617</v>
+        <v>-477.9661654768116</v>
       </c>
       <c r="E7" t="n">
-        <v>-292.4094876291609</v>
+        <v>-290.1250000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4654457740264556</v>
+        <v>0.4722620661322976</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2343.860155765917</v>
+        <v>-2121.642</v>
       </c>
       <c r="C8" t="n">
-        <v>-475.6905356196024</v>
+        <v>-454.3095430932704</v>
       </c>
       <c r="D8" t="n">
-        <v>-552.9877363751201</v>
+        <v>-553.5457642007888</v>
       </c>
       <c r="E8" t="n">
-        <v>-469.3307199803013</v>
+        <v>-400.51</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1113090308999138</v>
+        <v>0.1095145444271107</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -657,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1075.384931149022</v>
+        <v>-1621.632</v>
       </c>
       <c r="C9" t="n">
-        <v>-247.1783461433658</v>
+        <v>-270.0479445100354</v>
       </c>
       <c r="D9" t="n">
-        <v>-305.6390407123687</v>
+        <v>-362.6755732311693</v>
       </c>
       <c r="E9" t="n">
-        <v>-219.3452318613185</v>
+        <v>-202.8249999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7225233654083687</v>
+        <v>0.6092982334159975</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
@@ -683,19 +683,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2185.322430405443</v>
+        <v>-2079.31</v>
       </c>
       <c r="C10" t="n">
-        <v>-353.4401373746428</v>
+        <v>-371.2619079102715</v>
       </c>
       <c r="D10" t="n">
-        <v>-447.4872293629563</v>
+        <v>-465.3842527958249</v>
       </c>
       <c r="E10" t="n">
-        <v>-301.1339311837188</v>
+        <v>-313.9759999999998</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3001673191404024</v>
+        <v>0.2430689932864578</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -709,19 +709,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1163.688403140851</v>
+        <v>-1669.586</v>
       </c>
       <c r="C11" t="n">
-        <v>-292.520229923884</v>
+        <v>-318.6475312868949</v>
       </c>
       <c r="D11" t="n">
-        <v>-369.4135478099284</v>
+        <v>-422.7478958933169</v>
       </c>
       <c r="E11" t="n">
-        <v>-246.5209972524085</v>
+        <v>-240.2149999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6420944894333618</v>
+        <v>0.5312884481426838</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -735,19 +735,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2438.45</v>
+        <v>-2456.015</v>
       </c>
       <c r="C12" t="n">
-        <v>-435.1946725663717</v>
+        <v>-461.2448230088496</v>
       </c>
       <c r="D12" t="n">
-        <v>-595.8069381863493</v>
+        <v>-646.7313139575276</v>
       </c>
       <c r="E12" t="n">
-        <v>-321.8439999999999</v>
+        <v>-335.0400000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05295863487150954</v>
+        <v>-0.1158494791456381</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2377.25</v>
+        <v>-2551.45</v>
       </c>
       <c r="C13" t="n">
-        <v>-460.4009645808736</v>
+        <v>-473.7872963400236</v>
       </c>
       <c r="D13" t="n">
-        <v>-602.5317867970399</v>
+        <v>-632.519263318944</v>
       </c>
       <c r="E13" t="n">
-        <v>-377.271</v>
+        <v>-370.8725</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0253435915812954</v>
+        <v>-0.1299442275883511</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -787,19 +787,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2293.646</v>
+        <v>-2373.695</v>
       </c>
       <c r="C14" t="n">
-        <v>-346.7225478158206</v>
+        <v>-370.9466233766234</v>
       </c>
       <c r="D14" t="n">
-        <v>-546.0948810514111</v>
+        <v>-571.605991087667</v>
       </c>
       <c r="E14" t="n">
-        <v>-207.9600000000001</v>
+        <v>-233.3275</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.3391617786510315</v>
+        <v>-0.4672035814059226</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -813,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1348.278</v>
+        <v>-1623.7</v>
       </c>
       <c r="C15" t="n">
-        <v>-252.9991286894924</v>
+        <v>-280.9137839433294</v>
       </c>
       <c r="D15" t="n">
-        <v>-328.3868366401099</v>
+        <v>-368.2093078394067</v>
       </c>
       <c r="E15" t="n">
-        <v>-197.172</v>
+        <v>-219.4525000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3048538913137054</v>
+        <v>0.1260347978089235</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -839,19 +839,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1448.986</v>
+        <v>-1634.82</v>
       </c>
       <c r="C16" t="n">
-        <v>-297.7318630460449</v>
+        <v>-324.2570011806375</v>
       </c>
       <c r="D16" t="n">
-        <v>-383.5762315577041</v>
+        <v>-417.4236288460894</v>
       </c>
       <c r="E16" t="n">
-        <v>-231.8319999999999</v>
+        <v>-254.9424999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5178277671633698</v>
+        <v>0.4289779496904065</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -865,19 +865,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2057.718</v>
+        <v>-2180.175</v>
       </c>
       <c r="C17" t="n">
-        <v>-370.6011818181818</v>
+        <v>-391.214852420307</v>
       </c>
       <c r="D17" t="n">
-        <v>-477.9661654768116</v>
+        <v>-511.8412638179759</v>
       </c>
       <c r="E17" t="n">
-        <v>-290.1250000000001</v>
+        <v>-301.385</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4722620661322976</v>
+        <v>0.3948060283654234</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -891,19 +891,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-2121.642</v>
+        <v>-1948.565</v>
       </c>
       <c r="C18" t="n">
-        <v>-454.3095430932704</v>
+        <v>-467.6421192443919</v>
       </c>
       <c r="D18" t="n">
-        <v>-553.5457642007888</v>
+        <v>-580.6883039694214</v>
       </c>
       <c r="E18" t="n">
-        <v>-400.51</v>
+        <v>-390.8675000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1095145444271107</v>
+        <v>0.02004547147967473</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -917,19 +917,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1621.632</v>
+        <v>-1821.21</v>
       </c>
       <c r="C19" t="n">
-        <v>-270.0479445100354</v>
+        <v>-299.3264905548996</v>
       </c>
       <c r="D19" t="n">
-        <v>-362.6755732311693</v>
+        <v>-400.8518370976859</v>
       </c>
       <c r="E19" t="n">
-        <v>-202.8249999999999</v>
+        <v>-231.725</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6092982334159975</v>
+        <v>0.522716391815072</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -943,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-2079.31</v>
+        <v>-2349.29</v>
       </c>
       <c r="C20" t="n">
-        <v>-371.2619079102715</v>
+        <v>-403.2851121605667</v>
       </c>
       <c r="D20" t="n">
-        <v>-465.3842527958249</v>
+        <v>-513.1119693015315</v>
       </c>
       <c r="E20" t="n">
-        <v>-313.9759999999998</v>
+        <v>-331.1324999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2430689932864578</v>
+        <v>0.07985299052371819</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -969,19 +969,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-1669.586</v>
+        <v>-2107.53</v>
       </c>
       <c r="C21" t="n">
-        <v>-318.6475312868949</v>
+        <v>-355.9139462809918</v>
       </c>
       <c r="D21" t="n">
-        <v>-422.7478958933169</v>
+        <v>-470.7009040830698</v>
       </c>
       <c r="E21" t="n">
-        <v>-240.2149999999999</v>
+        <v>-267.0374999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5312884481426838</v>
+        <v>0.4189241678927692</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -995,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-2520.65</v>
+        <v>-2364.46</v>
       </c>
       <c r="C22" t="n">
-        <v>-525.1105604719764</v>
+        <v>-433.8444188790561</v>
       </c>
       <c r="D22" t="n">
-        <v>-754.0903214672759</v>
+        <v>-586.7220552879363</v>
       </c>
       <c r="E22" t="n">
-        <v>-354.09</v>
+        <v>-328.3239999999998</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.5170663299615903</v>
+        <v>0.08161947835744587</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-2475.81</v>
+        <v>-2338.513</v>
       </c>
       <c r="C23" t="n">
-        <v>-506.9697638724911</v>
+        <v>-453.9215330578513</v>
       </c>
       <c r="D23" t="n">
-        <v>-678.7892981089734</v>
+        <v>-588.3291020250609</v>
       </c>
       <c r="E23" t="n">
-        <v>-391.825</v>
+        <v>-377.2569999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.3013061074186434</v>
+        <v>0.02242483923512717</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1047,19 +1047,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2539.81</v>
+        <v>-2320.969</v>
       </c>
       <c r="C24" t="n">
-        <v>-417.9547107438017</v>
+        <v>-338.3380076741441</v>
       </c>
       <c r="D24" t="n">
-        <v>-622.8509900344503</v>
+        <v>-542.8467491697329</v>
       </c>
       <c r="E24" t="n">
-        <v>-275.945</v>
+        <v>-201.642</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.7420681975951222</v>
+        <v>-0.3232786852489726</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1073,19 +1073,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-2314.15</v>
+        <v>-1302.675</v>
       </c>
       <c r="C25" t="n">
-        <v>-317.9985419126328</v>
+        <v>-247.4989958677686</v>
       </c>
       <c r="D25" t="n">
-        <v>-423.7409094980463</v>
+        <v>-318.08732931546</v>
       </c>
       <c r="E25" t="n">
-        <v>-234.07</v>
+        <v>-202.3745</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1574584358655908</v>
+        <v>0.3477751294106048</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1099,19 +1099,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1552.93</v>
+        <v>-1179.139</v>
       </c>
       <c r="C26" t="n">
-        <v>-366.4999409681229</v>
+        <v>-288.1903547815821</v>
       </c>
       <c r="D26" t="n">
-        <v>-471.4266163533572</v>
+        <v>-369.3182425273405</v>
       </c>
       <c r="E26" t="n">
-        <v>-293.115</v>
+        <v>-229.3415000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2716719803494625</v>
+        <v>0.5530073922161676</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1125,19 +1125,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2356.44</v>
+        <v>-2007.018</v>
       </c>
       <c r="C27" t="n">
-        <v>-419.693665879575</v>
+        <v>-362.5406534828808</v>
       </c>
       <c r="D27" t="n">
-        <v>-559.277157068369</v>
+        <v>-463.8617097790638</v>
       </c>
       <c r="E27" t="n">
-        <v>-313.1900000000001</v>
+        <v>-285.69</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2774329285231245</v>
+        <v>0.5029488853147386</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -1151,19 +1151,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2323.68</v>
+        <v>-2204.248</v>
       </c>
       <c r="C28" t="n">
-        <v>-528.7455726092089</v>
+        <v>-452.9077142857143</v>
       </c>
       <c r="D28" t="n">
-        <v>-656.1334542031501</v>
+        <v>-545.0113868933385</v>
       </c>
       <c r="E28" t="n">
-        <v>-469.9299999999999</v>
+        <v>-410.8685</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.2511348749567717</v>
+        <v>0.136761266481721</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1177,19 +1177,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1985.61</v>
+        <v>-1483.181</v>
       </c>
       <c r="C29" t="n">
-        <v>-349.7221723730814</v>
+        <v>-259.8782715466352</v>
       </c>
       <c r="D29" t="n">
-        <v>-466.4248588851891</v>
+        <v>-347.9059755814643</v>
       </c>
       <c r="E29" t="n">
-        <v>-267.66</v>
+        <v>-201.833</v>
       </c>
       <c r="F29" t="n">
-        <v>0.3537922827129193</v>
+        <v>0.6404721488822832</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -1203,19 +1203,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2206.3</v>
+        <v>-2049.12</v>
       </c>
       <c r="C30" t="n">
-        <v>-437.1080401416765</v>
+        <v>-363.3717337662337</v>
       </c>
       <c r="D30" t="n">
-        <v>-556.3928522817739</v>
+        <v>-450.2027655669084</v>
       </c>
       <c r="E30" t="n">
-        <v>-371.1</v>
+        <v>-314.6215</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.0819221504989982</v>
+        <v>0.2916478033918887</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1229,19 +1229,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-2255.15</v>
+        <v>-1440.674</v>
       </c>
       <c r="C31" t="n">
-        <v>-404.4559681227863</v>
+        <v>-296.7015436835891</v>
       </c>
       <c r="D31" t="n">
-        <v>-530.8787844441557</v>
+        <v>-392.2933516591505</v>
       </c>
       <c r="E31" t="n">
-        <v>-309.04</v>
+        <v>-226.326</v>
       </c>
       <c r="F31" t="n">
-        <v>0.260848457160323</v>
+        <v>0.5963874665889347</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1255,19 +1255,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1419.832643457397</v>
+        <v>-2438.45</v>
       </c>
       <c r="C32" t="n">
-        <v>-350.8526388090384</v>
+        <v>-435.3081392168713</v>
       </c>
       <c r="D32" t="n">
-        <v>-439.6297894308731</v>
+        <v>-596.0489708878102</v>
       </c>
       <c r="E32" t="n">
-        <v>-294.7858328661102</v>
+        <v>-325.7412176216096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4843772611353772</v>
+        <v>0.05218905156547915</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2570.0869888558</v>
+        <v>-2382.721980181812</v>
       </c>
       <c r="C33" t="n">
-        <v>-366.3603743769817</v>
+        <v>-459.5327740471848</v>
       </c>
       <c r="D33" t="n">
-        <v>-490.3029488681936</v>
+        <v>-602.3284897334585</v>
       </c>
       <c r="E33" t="n">
-        <v>-310.078874671422</v>
+        <v>-375.5199658676705</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3210488855834018</v>
+        <v>-0.02465179679136908</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1307,19 +1307,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2538.538231601671</v>
+        <v>-2290.891160211722</v>
       </c>
       <c r="C34" t="n">
-        <v>-354.6154970695304</v>
+        <v>-347.2584826722151</v>
       </c>
       <c r="D34" t="n">
-        <v>-553.3401172659136</v>
+        <v>-545.4200845574409</v>
       </c>
       <c r="E34" t="n">
-        <v>-228.6722163031591</v>
+        <v>-209.5468960612713</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3749317787462478</v>
+        <v>-0.3358542825078548</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1333,19 +1333,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1495.591924105226</v>
+        <v>-1343.359078132125</v>
       </c>
       <c r="C35" t="n">
-        <v>-246.1529964095182</v>
+        <v>-254.6704658153303</v>
       </c>
       <c r="D35" t="n">
-        <v>-303.0657808241638</v>
+        <v>-331.3232689775684</v>
       </c>
       <c r="E35" t="n">
-        <v>-220.1577482522121</v>
+        <v>-203.0001008231794</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4079226852336892</v>
+        <v>0.2923663266366917</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1359,19 +1359,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-2319.291117538055</v>
+        <v>-1472.651024083263</v>
       </c>
       <c r="C36" t="n">
-        <v>-301.8220416365249</v>
+        <v>-298.0762669042547</v>
       </c>
       <c r="D36" t="n">
-        <v>-379.7516471535321</v>
+        <v>-384.5842999886713</v>
       </c>
       <c r="E36" t="n">
-        <v>-262.5921307584696</v>
+        <v>-232.5763787077383</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5273951729550811</v>
+        <v>0.5152900639820894</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1385,19 +1385,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-3187.290828875733</v>
+        <v>-2060.581784018738</v>
       </c>
       <c r="C37" t="n">
-        <v>-355.9807588842343</v>
+        <v>-372.0214896013863</v>
       </c>
       <c r="D37" t="n">
-        <v>-481.0429808800617</v>
+        <v>-479.650020346302</v>
       </c>
       <c r="E37" t="n">
-        <v>-292.4094876291609</v>
+        <v>-299.9022150438022</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4654457740264556</v>
+        <v>0.4685371187846513</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -1411,19 +1411,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2343.860155765917</v>
+        <v>-2110.276235117813</v>
       </c>
       <c r="C38" t="n">
-        <v>-475.6905356196024</v>
+        <v>-454.5291748493821</v>
       </c>
       <c r="D38" t="n">
-        <v>-552.9877363751201</v>
+        <v>-553.8982689529955</v>
       </c>
       <c r="E38" t="n">
-        <v>-469.3307199803013</v>
+        <v>-407.3637967779411</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1113090308999138</v>
+        <v>0.1083800391234073</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -1437,19 +1437,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1075.384931149022</v>
+        <v>-1624.736068019442</v>
       </c>
       <c r="C39" t="n">
-        <v>-247.1783461433658</v>
+        <v>-270.6488052058083</v>
       </c>
       <c r="D39" t="n">
-        <v>-305.6390407123687</v>
+        <v>-363.1424453296964</v>
       </c>
       <c r="E39" t="n">
-        <v>-219.3452318613185</v>
+        <v>-205.0660601384442</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7225233654083687</v>
+        <v>0.6082916855597642</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -1463,19 +1463,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2185.322430405443</v>
+        <v>-2095.044944749241</v>
       </c>
       <c r="C40" t="n">
-        <v>-353.4401373746428</v>
+        <v>-373.0430233662884</v>
       </c>
       <c r="D40" t="n">
-        <v>-447.4872293629563</v>
+        <v>-468.176592979327</v>
       </c>
       <c r="E40" t="n">
-        <v>-301.1339311837188</v>
+        <v>-315.5467511215575</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3001673191404024</v>
+        <v>0.2339584582446308</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
@@ -1489,19 +1489,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1163.688403140851</v>
+        <v>-1792.705793537477</v>
       </c>
       <c r="C41" t="n">
-        <v>-292.520229923884</v>
+        <v>-319.9860335275488</v>
       </c>
       <c r="D41" t="n">
-        <v>-369.4135478099284</v>
+        <v>-425.5975514820797</v>
       </c>
       <c r="E41" t="n">
-        <v>-246.5209972524085</v>
+        <v>-235.1685998966913</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6420944894333618</v>
+        <v>0.524948176641771</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
@@ -1515,19 +1515,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>-1419.832643457397</v>
+        <v>-2454.283883164773</v>
       </c>
       <c r="C42" t="n">
-        <v>-350.8526388090384</v>
+        <v>-460.9393491630265</v>
       </c>
       <c r="D42" t="n">
-        <v>-439.6297894308731</v>
+        <v>-646.2966260618057</v>
       </c>
       <c r="E42" t="n">
-        <v>-294.7858328661102</v>
+        <v>-334.2424851760888</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4843772611353772</v>
+        <v>-0.1143499901171841</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2570.0869888558</v>
+        <v>-2551.45</v>
       </c>
       <c r="C43" t="n">
-        <v>-366.3603743769817</v>
+        <v>-473.2335311965973</v>
       </c>
       <c r="D43" t="n">
-        <v>-490.3029488681936</v>
+        <v>-632.3472595675569</v>
       </c>
       <c r="E43" t="n">
-        <v>-310.078874671422</v>
+        <v>-368.9029966806958</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3210488855834018</v>
+        <v>-0.1293297697167415</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1567,19 +1567,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2538.538231601671</v>
+        <v>-2374.119411094742</v>
       </c>
       <c r="C44" t="n">
-        <v>-354.6154970695304</v>
+        <v>-371.4789576555888</v>
       </c>
       <c r="D44" t="n">
-        <v>-553.3401172659136</v>
+        <v>-571.4917679441897</v>
       </c>
       <c r="E44" t="n">
-        <v>-228.6722163031591</v>
+        <v>-233.1757616598929</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.3749317787462478</v>
+        <v>-0.4666172619365123</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -1593,19 +1593,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-1495.591924105226</v>
+        <v>-1623.7</v>
       </c>
       <c r="C45" t="n">
-        <v>-246.1529964095182</v>
+        <v>-281.7760548049134</v>
       </c>
       <c r="D45" t="n">
-        <v>-303.0657808241638</v>
+        <v>-369.6745242841004</v>
       </c>
       <c r="E45" t="n">
-        <v>-220.1577482522121</v>
+        <v>-222.8093479302144</v>
       </c>
       <c r="F45" t="n">
-        <v>0.4079226852336892</v>
+        <v>0.119065413799806</v>
       </c>
       <c r="G45" t="n">
         <v>3</v>
@@ -1619,19 +1619,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-2319.291117538055</v>
+        <v>-1637.46131179553</v>
       </c>
       <c r="C46" t="n">
-        <v>-301.8220416365249</v>
+        <v>-324.9604937717049</v>
       </c>
       <c r="D46" t="n">
-        <v>-379.7516471535321</v>
+        <v>-418.5121475587379</v>
       </c>
       <c r="E46" t="n">
-        <v>-262.5921307584696</v>
+        <v>-252.6344463923826</v>
       </c>
       <c r="F46" t="n">
-        <v>0.5273951729550811</v>
+        <v>0.425995949735982</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -1645,19 +1645,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-3187.290828875733</v>
+        <v>-2179.11794603953</v>
       </c>
       <c r="C47" t="n">
-        <v>-355.9807588842343</v>
+        <v>-392.5097625266134</v>
       </c>
       <c r="D47" t="n">
-        <v>-481.0429808800617</v>
+        <v>-513.6359171489941</v>
       </c>
       <c r="E47" t="n">
-        <v>-292.4094876291609</v>
+        <v>-304.1059366513397</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4654457740264556</v>
+        <v>0.390554642019555</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -1671,19 +1671,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-2343.860155765917</v>
+        <v>-1948.639161272728</v>
       </c>
       <c r="C48" t="n">
-        <v>-475.6905356196024</v>
+        <v>-469.7109588401618</v>
       </c>
       <c r="D48" t="n">
-        <v>-552.9877363751201</v>
+        <v>-582.6588870042688</v>
       </c>
       <c r="E48" t="n">
-        <v>-469.3307199803013</v>
+        <v>-388.5637342966915</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1113090308999138</v>
+        <v>0.01338317658819144</v>
       </c>
       <c r="G48" t="n">
         <v>6</v>
@@ -1697,19 +1697,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-1075.384931149022</v>
+        <v>-1821.21</v>
       </c>
       <c r="C49" t="n">
-        <v>-247.1783461433658</v>
+        <v>-299.703099327413</v>
       </c>
       <c r="D49" t="n">
-        <v>-305.6390407123687</v>
+        <v>-401.4122943503354</v>
       </c>
       <c r="E49" t="n">
-        <v>-219.3452318613185</v>
+        <v>-231.8491596037498</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7225233654083687</v>
+        <v>0.5213808157363357</v>
       </c>
       <c r="G49" t="n">
         <v>7</v>
@@ -1723,19 +1723,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>-2185.322430405443</v>
+        <v>-2349.007832889868</v>
       </c>
       <c r="C50" t="n">
-        <v>-353.4401373746428</v>
+        <v>-404.1140623815262</v>
       </c>
       <c r="D50" t="n">
-        <v>-447.4872293629563</v>
+        <v>-514.2480814803887</v>
       </c>
       <c r="E50" t="n">
-        <v>-301.1339311837188</v>
+        <v>-332.7175803502539</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3001673191404024</v>
+        <v>0.07577377344358316</v>
       </c>
       <c r="G50" t="n">
         <v>8</v>
@@ -1749,25 +1749,285 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1163.688403140851</v>
+        <v>-2107.53</v>
       </c>
       <c r="C51" t="n">
-        <v>-292.520229923884</v>
+        <v>-358.2613852948924</v>
       </c>
       <c r="D51" t="n">
-        <v>-369.4135478099284</v>
+        <v>-473.1166551145265</v>
       </c>
       <c r="E51" t="n">
-        <v>-246.5209972524085</v>
+        <v>-273.5203950866442</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6420944894333618</v>
+        <v>0.4129444186236874</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
       </c>
       <c r="H51" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-2364.46</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-432.7762780315138</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-585.863961981872</v>
+      </c>
+      <c r="E52" t="n">
+        <v>-324.8133277709754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.08430381550347055</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-2348.101433168539</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-453.275822538995</v>
+      </c>
+      <c r="D53" t="n">
+        <v>-587.7349735913032</v>
+      </c>
+      <c r="E53" t="n">
+        <v>-381.5578610512899</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.02439826510158449</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>-2317.677145694649</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-338.536726969461</v>
+      </c>
+      <c r="D54" t="n">
+        <v>-541.3474628189326</v>
+      </c>
+      <c r="E54" t="n">
+        <v>-201.6849449589862</v>
+      </c>
+      <c r="F54" t="n">
+        <v>-0.315979262678977</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-1285.463700119305</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-247.8237556164009</v>
+      </c>
+      <c r="D55" t="n">
+        <v>-319.4276806191107</v>
+      </c>
+      <c r="E55" t="n">
+        <v>-202.7057707999037</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.3422668790538559</v>
+      </c>
+      <c r="G55" t="n">
+        <v>3</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-1183.933607015242</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-288.2817697621439</v>
+      </c>
+      <c r="D56" t="n">
+        <v>-370.3533977575622</v>
+      </c>
+      <c r="E56" t="n">
+        <v>-227.7632956465364</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.5504981460511407</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>-2014.499881996686</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-363.2702722752195</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-465.1765025612103</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-289.3418808123618</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.5001271589773679</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-2187.557137858409</v>
+      </c>
+      <c r="C58" t="n">
+        <v>-452.4791603083515</v>
+      </c>
+      <c r="D58" t="n">
+        <v>-544.762485665</v>
+      </c>
+      <c r="E58" t="n">
+        <v>-413.4949174628759</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1375495513646275</v>
+      </c>
+      <c r="G58" t="n">
+        <v>6</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>-1497.609645359435</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-259.7493210437882</v>
+      </c>
+      <c r="D59" t="n">
+        <v>-347.8036343873346</v>
+      </c>
+      <c r="E59" t="n">
+        <v>-200.1284234296435</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.6406836376199878</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>-2061.09431240503</v>
+      </c>
+      <c r="C60" t="n">
+        <v>-364.8001134077392</v>
+      </c>
+      <c r="D60" t="n">
+        <v>-452.5940669157164</v>
+      </c>
+      <c r="E60" t="n">
+        <v>-311.1338268642188</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.2841028378021206</v>
+      </c>
+      <c r="G60" t="n">
+        <v>8</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>-1433.186962699765</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-300.0399536576112</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-397.5152853706285</v>
+      </c>
+      <c r="E61" t="n">
+        <v>-226.6470019672803</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.5855707367938585</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Regresion.xlsx
+++ b/Regresion.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="K vecinos más cercanos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Árbol de decisión" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,19 +475,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-2438.45</v>
+        <v>-2520.65</v>
       </c>
       <c r="C2" t="n">
-        <v>-435.1946725663717</v>
+        <v>-526.8746371681415</v>
       </c>
       <c r="D2" t="n">
-        <v>-595.8069381863493</v>
+        <v>-754.6654938861058</v>
       </c>
       <c r="E2" t="n">
-        <v>-321.8439999999999</v>
+        <v>-362.4400000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05295863487150954</v>
+        <v>-0.519381457097132</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -501,19 +501,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-2377.25</v>
+        <v>-2475.81</v>
       </c>
       <c r="C3" t="n">
-        <v>-460.4009645808736</v>
+        <v>-497.5936776859504</v>
       </c>
       <c r="D3" t="n">
-        <v>-602.5317867970399</v>
+        <v>-671.0724541909383</v>
       </c>
       <c r="E3" t="n">
-        <v>-377.271</v>
+        <v>-387.5299999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0253435915812954</v>
+        <v>-0.2718863895766481</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -527,19 +527,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-2293.646</v>
+        <v>-2539.81</v>
       </c>
       <c r="C4" t="n">
-        <v>-346.7225478158206</v>
+        <v>-411.9265938606848</v>
       </c>
       <c r="D4" t="n">
-        <v>-546.0948810514111</v>
+        <v>-621.2168661559626</v>
       </c>
       <c r="E4" t="n">
-        <v>-207.9600000000001</v>
+        <v>-263.53</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3391617786510315</v>
+        <v>-0.7329391414191264</v>
       </c>
       <c r="G4" t="n">
         <v>2</v>
@@ -553,19 +553,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1348.278</v>
+        <v>-2140.63</v>
       </c>
       <c r="C5" t="n">
-        <v>-252.9991286894924</v>
+        <v>-317.214173553719</v>
       </c>
       <c r="D5" t="n">
-        <v>-328.3868366401099</v>
+        <v>-420.6634977791792</v>
       </c>
       <c r="E5" t="n">
-        <v>-197.172</v>
+        <v>-242.585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3048538913137054</v>
+        <v>-0.1407074369553385</v>
       </c>
       <c r="G5" t="n">
         <v>3</v>
@@ -579,19 +579,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1448.986</v>
+        <v>-1552.93</v>
       </c>
       <c r="C6" t="n">
-        <v>-297.7318630460449</v>
+        <v>-365.2055430932704</v>
       </c>
       <c r="D6" t="n">
-        <v>-383.5762315577041</v>
+        <v>-470.7729655067367</v>
       </c>
       <c r="E6" t="n">
-        <v>-231.8319999999999</v>
+        <v>-291.215</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5178277671633698</v>
+        <v>0.2736902888796913</v>
       </c>
       <c r="G6" t="n">
         <v>4</v>
@@ -605,19 +605,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-2057.718</v>
+        <v>-2356.44</v>
       </c>
       <c r="C7" t="n">
-        <v>-370.6011818181818</v>
+        <v>-426.2089138134593</v>
       </c>
       <c r="D7" t="n">
-        <v>-477.9661654768116</v>
+        <v>-568.6509983556986</v>
       </c>
       <c r="E7" t="n">
-        <v>-290.1250000000001</v>
+        <v>-317.41</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4722620661322976</v>
+        <v>0.2530085772794132</v>
       </c>
       <c r="G7" t="n">
         <v>5</v>
@@ -631,19 +631,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2121.642</v>
+        <v>-2323.68</v>
       </c>
       <c r="C8" t="n">
-        <v>-454.3095430932704</v>
+        <v>-531.3169480519481</v>
       </c>
       <c r="D8" t="n">
-        <v>-553.5457642007888</v>
+        <v>-661.0831895311637</v>
       </c>
       <c r="E8" t="n">
-        <v>-400.51</v>
+        <v>-447.785</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1095145444271107</v>
+        <v>-0.2700826819990576</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
@@ -657,19 +657,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1621.632</v>
+        <v>-2000.56</v>
       </c>
       <c r="C9" t="n">
-        <v>-270.0479445100354</v>
+        <v>-353.1005844155844</v>
       </c>
       <c r="D9" t="n">
-        <v>-362.6755732311693</v>
+        <v>-470.9661037346543</v>
       </c>
       <c r="E9" t="n">
-        <v>-202.8249999999999</v>
+        <v>-269.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6092982334159975</v>
+        <v>0.3411477017047901</v>
       </c>
       <c r="G9" t="n">
         <v>7</v>
@@ -683,19 +683,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-2079.31</v>
+        <v>-2206.3</v>
       </c>
       <c r="C10" t="n">
-        <v>-371.2619079102715</v>
+        <v>-433.8674911452184</v>
       </c>
       <c r="D10" t="n">
-        <v>-465.3842527958249</v>
+        <v>-554.2983996098982</v>
       </c>
       <c r="E10" t="n">
-        <v>-313.9759999999998</v>
+        <v>-361.2149999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2430689932864578</v>
+        <v>-0.07379203284791647</v>
       </c>
       <c r="G10" t="n">
         <v>8</v>
@@ -709,19 +709,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1669.586</v>
+        <v>-2255.15</v>
       </c>
       <c r="C11" t="n">
-        <v>-318.6475312868949</v>
+        <v>-401.3235419126329</v>
       </c>
       <c r="D11" t="n">
-        <v>-422.7478958933169</v>
+        <v>-528.5364262242733</v>
       </c>
       <c r="E11" t="n">
-        <v>-240.2149999999999</v>
+        <v>-312.9349999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5312884481426838</v>
+        <v>0.2673566777572447</v>
       </c>
       <c r="G11" t="n">
         <v>9</v>
@@ -735,19 +735,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-2456.015</v>
+        <v>-2710.36875</v>
       </c>
       <c r="C12" t="n">
-        <v>-461.2448230088496</v>
+        <v>-492.5036023436109</v>
       </c>
       <c r="D12" t="n">
-        <v>-646.7313139575276</v>
+        <v>-700.7476174156261</v>
       </c>
       <c r="E12" t="n">
-        <v>-335.0400000000001</v>
+        <v>-345.0600000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1158494791456381</v>
+        <v>-0.3100295610758477</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2551.45</v>
+        <v>-2545.38</v>
       </c>
       <c r="C13" t="n">
-        <v>-473.7872963400236</v>
+        <v>-486.5509305946397</v>
       </c>
       <c r="D13" t="n">
-        <v>-632.519263318944</v>
+        <v>-668.0623250578442</v>
       </c>
       <c r="E13" t="n">
-        <v>-370.8725</v>
+        <v>-351.0199999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1299442275883511</v>
+        <v>-0.2605017598179773</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -787,19 +787,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-2373.695</v>
+        <v>-2391.65</v>
       </c>
       <c r="C14" t="n">
-        <v>-370.9466233766234</v>
+        <v>-399.5169060760178</v>
       </c>
       <c r="D14" t="n">
-        <v>-571.605991087667</v>
+        <v>-595.733270494911</v>
       </c>
       <c r="E14" t="n">
-        <v>-233.3275</v>
+        <v>-263.24</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.4672035814059226</v>
+        <v>-0.5936778802765725</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
@@ -813,19 +813,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1623.7</v>
+        <v>-1686.4</v>
       </c>
       <c r="C15" t="n">
-        <v>-280.9137839433294</v>
+        <v>-317.0084631832673</v>
       </c>
       <c r="D15" t="n">
-        <v>-368.2093078394067</v>
+        <v>-414.9915661526157</v>
       </c>
       <c r="E15" t="n">
-        <v>-219.4525000000001</v>
+        <v>-246.92</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1260347978089235</v>
+        <v>-0.1101538184343771</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -839,19 +839,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1634.82</v>
+        <v>-1573.9</v>
       </c>
       <c r="C16" t="n">
-        <v>-324.2570011806375</v>
+        <v>-356.0094265963643</v>
       </c>
       <c r="D16" t="n">
-        <v>-417.4236288460894</v>
+        <v>-463.2539914453534</v>
       </c>
       <c r="E16" t="n">
-        <v>-254.9424999999999</v>
+        <v>-273.87</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4289779496904065</v>
+        <v>0.2967055982876311</v>
       </c>
       <c r="G16" t="n">
         <v>4</v>
@@ -865,19 +865,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-2180.175</v>
+        <v>-2179.38</v>
       </c>
       <c r="C17" t="n">
-        <v>-391.214852420307</v>
+        <v>-429.4358049229479</v>
       </c>
       <c r="D17" t="n">
-        <v>-511.8412638179759</v>
+        <v>-564.0118486678582</v>
       </c>
       <c r="E17" t="n">
-        <v>-301.385</v>
+        <v>-330.0600000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3948060283654234</v>
+        <v>0.2651470219824839</v>
       </c>
       <c r="G17" t="n">
         <v>5</v>
@@ -891,19 +891,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-1948.565</v>
+        <v>-2109.801666666666</v>
       </c>
       <c r="C18" t="n">
-        <v>-467.6421192443919</v>
+        <v>-537.7794854573598</v>
       </c>
       <c r="D18" t="n">
-        <v>-580.6883039694214</v>
+        <v>-676.5413909082044</v>
       </c>
       <c r="E18" t="n">
-        <v>-390.8675000000001</v>
+        <v>-425.6450000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02004547147967473</v>
+        <v>-0.3301741713841684</v>
       </c>
       <c r="G18" t="n">
         <v>6</v>
@@ -917,19 +917,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-1821.21</v>
+        <v>-1765.06</v>
       </c>
       <c r="C19" t="n">
-        <v>-299.3264905548996</v>
+        <v>-353.4045633727795</v>
       </c>
       <c r="D19" t="n">
-        <v>-400.8518370976859</v>
+        <v>-456.7580238275388</v>
       </c>
       <c r="E19" t="n">
-        <v>-231.725</v>
+        <v>-285.5650000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.522716391815072</v>
+        <v>0.3803005178580915</v>
       </c>
       <c r="G19" t="n">
         <v>7</v>
@@ -943,19 +943,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-2349.29</v>
+        <v>-2502.39</v>
       </c>
       <c r="C20" t="n">
-        <v>-403.2851121605667</v>
+        <v>-446.5444320340387</v>
       </c>
       <c r="D20" t="n">
-        <v>-513.1119693015315</v>
+        <v>-586.0850002550322</v>
       </c>
       <c r="E20" t="n">
-        <v>-331.1324999999999</v>
+        <v>-347.5099999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07985299052371819</v>
+        <v>-0.2004778218078036</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -969,19 +969,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-2107.53</v>
+        <v>-1692.22</v>
       </c>
       <c r="C21" t="n">
-        <v>-355.9139462809918</v>
+        <v>-403.4292388140215</v>
       </c>
       <c r="D21" t="n">
-        <v>-470.7009040830698</v>
+        <v>-518.0725515739575</v>
       </c>
       <c r="E21" t="n">
-        <v>-267.0374999999999</v>
+        <v>-321.7261607142858</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4189241678927692</v>
+        <v>0.2960790120227192</v>
       </c>
       <c r="G21" t="n">
         <v>9</v>
@@ -995,19 +995,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-2364.46</v>
+        <v>-2441.1</v>
       </c>
       <c r="C22" t="n">
-        <v>-433.8444188790561</v>
+        <v>-502.6386135693215</v>
       </c>
       <c r="D22" t="n">
-        <v>-586.7220552879363</v>
+        <v>-725.7065253770344</v>
       </c>
       <c r="E22" t="n">
-        <v>-328.3239999999998</v>
+        <v>-344.03</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08161947835744587</v>
+        <v>-0.4050115436162871</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1021,19 +1021,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-2338.513</v>
+        <v>-2545.38</v>
       </c>
       <c r="C23" t="n">
-        <v>-453.9215330578513</v>
+        <v>-497.3913813459268</v>
       </c>
       <c r="D23" t="n">
-        <v>-588.3291020250609</v>
+        <v>-677.9373402279334</v>
       </c>
       <c r="E23" t="n">
-        <v>-377.2569999999999</v>
+        <v>-375.025</v>
       </c>
       <c r="F23" t="n">
-        <v>0.02242483923512717</v>
+        <v>-0.2980415826215672</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1047,19 +1047,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-2320.969</v>
+        <v>-2377.25</v>
       </c>
       <c r="C24" t="n">
-        <v>-338.3380076741441</v>
+        <v>-418.3640968122787</v>
       </c>
       <c r="D24" t="n">
-        <v>-542.8467491697329</v>
+        <v>-620.8516820511845</v>
       </c>
       <c r="E24" t="n">
-        <v>-201.642</v>
+        <v>-273.3399999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.3232786852489726</v>
+        <v>-0.730902313848836</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1073,19 +1073,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-1302.675</v>
+        <v>-1461.41</v>
       </c>
       <c r="C25" t="n">
-        <v>-247.4989958677686</v>
+        <v>-320.0142621015348</v>
       </c>
       <c r="D25" t="n">
-        <v>-318.08732931546</v>
+        <v>-418.0704620188238</v>
       </c>
       <c r="E25" t="n">
-        <v>-202.3745</v>
+        <v>-252.735</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3477751294106048</v>
+        <v>-0.1266877812121412</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -1099,19 +1099,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1179.139</v>
+        <v>-2116.02</v>
       </c>
       <c r="C26" t="n">
-        <v>-288.1903547815821</v>
+        <v>-363.3789551357733</v>
       </c>
       <c r="D26" t="n">
-        <v>-369.3182425273405</v>
+        <v>-474.5882618938756</v>
       </c>
       <c r="E26" t="n">
-        <v>-229.3415000000001</v>
+        <v>-275.6049999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5530073922161676</v>
+        <v>0.261870087157907</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1125,19 +1125,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-2007.018</v>
+        <v>-2489.42</v>
       </c>
       <c r="C27" t="n">
-        <v>-362.5406534828808</v>
+        <v>-436.153961038961</v>
       </c>
       <c r="D27" t="n">
-        <v>-463.8617097790638</v>
+        <v>-579.6834436085954</v>
       </c>
       <c r="E27" t="n">
-        <v>-285.69</v>
+        <v>-339.2099999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5029488853147386</v>
+        <v>0.2237425229170364</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -1151,19 +1151,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-2204.248</v>
+        <v>-2480.07</v>
       </c>
       <c r="C28" t="n">
-        <v>-452.9077142857143</v>
+        <v>-514.818010625738</v>
       </c>
       <c r="D28" t="n">
-        <v>-545.0113868933385</v>
+        <v>-646.9862884608725</v>
       </c>
       <c r="E28" t="n">
-        <v>-410.8685</v>
+        <v>-428.2149999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.136761266481721</v>
+        <v>-0.216493857477347</v>
       </c>
       <c r="G28" t="n">
         <v>6</v>
@@ -1177,19 +1177,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-1483.181</v>
+        <v>-1964.89</v>
       </c>
       <c r="C29" t="n">
-        <v>-259.8782715466352</v>
+        <v>-356.1959681227863</v>
       </c>
       <c r="D29" t="n">
-        <v>-347.9059755814643</v>
+        <v>-472.4245762710446</v>
       </c>
       <c r="E29" t="n">
-        <v>-201.833</v>
+        <v>-272.1950000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6404721488822832</v>
+        <v>0.3370607585266214</v>
       </c>
       <c r="G29" t="n">
         <v>7</v>
@@ -1203,19 +1203,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-2049.12</v>
+        <v>-2433.57</v>
       </c>
       <c r="C30" t="n">
-        <v>-363.3717337662337</v>
+        <v>-475.140442739079</v>
       </c>
       <c r="D30" t="n">
-        <v>-450.2027655669084</v>
+        <v>-595.2245634620459</v>
       </c>
       <c r="E30" t="n">
-        <v>-314.6215</v>
+        <v>-407.6</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2916478033918887</v>
+        <v>-0.2382108872312485</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1229,19 +1229,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1440.674</v>
+        <v>-2433.57</v>
       </c>
       <c r="C31" t="n">
-        <v>-296.7015436835891</v>
+        <v>-413.0881641086186</v>
       </c>
       <c r="D31" t="n">
-        <v>-392.2933516591505</v>
+        <v>-556.9212339304871</v>
       </c>
       <c r="E31" t="n">
-        <v>-226.326</v>
+        <v>-311.65</v>
       </c>
       <c r="F31" t="n">
-        <v>0.5963874665889347</v>
+        <v>0.1865510530507086</v>
       </c>
       <c r="G31" t="n">
         <v>9</v>
@@ -1255,19 +1255,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-2438.45</v>
+        <v>-2520.65</v>
       </c>
       <c r="C32" t="n">
-        <v>-435.3081392168713</v>
+        <v>-483.9830855457228</v>
       </c>
       <c r="D32" t="n">
-        <v>-596.0489708878102</v>
+        <v>-679.8091358602038</v>
       </c>
       <c r="E32" t="n">
-        <v>-325.7412176216096</v>
+        <v>-352.5</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05218905156547915</v>
+        <v>-0.2329112899864141</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-2382.721980181812</v>
+        <v>-2516.7</v>
       </c>
       <c r="C33" t="n">
-        <v>-459.5327740471848</v>
+        <v>-506.4876623376623</v>
       </c>
       <c r="D33" t="n">
-        <v>-602.3284897334585</v>
+        <v>-703.0224443659608</v>
       </c>
       <c r="E33" t="n">
-        <v>-375.5199658676705</v>
+        <v>-362.465</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02465179679136908</v>
+        <v>-0.395879327715279</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1307,19 +1307,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-2290.891160211722</v>
+        <v>-2608.26</v>
       </c>
       <c r="C34" t="n">
-        <v>-347.2584826722151</v>
+        <v>-442.9690141676505</v>
       </c>
       <c r="D34" t="n">
-        <v>-545.4200845574409</v>
+        <v>-669.7153516107988</v>
       </c>
       <c r="E34" t="n">
-        <v>-209.5468960612713</v>
+        <v>-279.105</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.3358542825078548</v>
+        <v>-1.014082902416687</v>
       </c>
       <c r="G34" t="n">
         <v>2</v>
@@ -1333,19 +1333,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1343.359078132125</v>
+        <v>-1623.7</v>
       </c>
       <c r="C35" t="n">
-        <v>-254.6704658153303</v>
+        <v>-317.0337012987013</v>
       </c>
       <c r="D35" t="n">
-        <v>-331.3232689775684</v>
+        <v>-410.9712544618172</v>
       </c>
       <c r="E35" t="n">
-        <v>-203.0001008231794</v>
+        <v>-254.865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2923663266366917</v>
+        <v>-0.08874834492765427</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1359,19 +1359,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-1472.651024083263</v>
+        <v>-1926.59</v>
       </c>
       <c r="C36" t="n">
-        <v>-298.0762669042547</v>
+        <v>-366.8487544273908</v>
       </c>
       <c r="D36" t="n">
-        <v>-384.5842999886713</v>
+        <v>-478.7536202955586</v>
       </c>
       <c r="E36" t="n">
-        <v>-232.5763787077383</v>
+        <v>-290.8100000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>0.5152900639820894</v>
+        <v>0.2488564147845764</v>
       </c>
       <c r="G36" t="n">
         <v>4</v>
@@ -1385,19 +1385,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-2060.581784018738</v>
+        <v>-2315.5</v>
       </c>
       <c r="C37" t="n">
-        <v>-372.0214896013863</v>
+        <v>-429.8910094451004</v>
       </c>
       <c r="D37" t="n">
-        <v>-479.650020346302</v>
+        <v>-571.5532125503997</v>
       </c>
       <c r="E37" t="n">
-        <v>-299.9022150438022</v>
+        <v>-324.825</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4685371187846513</v>
+        <v>0.245364305739778</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -1411,19 +1411,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-2110.276235117813</v>
+        <v>-2331.34</v>
       </c>
       <c r="C38" t="n">
-        <v>-454.5291748493821</v>
+        <v>-485.4710861865407</v>
       </c>
       <c r="D38" t="n">
-        <v>-553.8982689529955</v>
+        <v>-622.2384808253462</v>
       </c>
       <c r="E38" t="n">
-        <v>-407.3637967779411</v>
+        <v>-379.0450000000002</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1083800391234073</v>
+        <v>-0.1252097786641644</v>
       </c>
       <c r="G38" t="n">
         <v>6</v>
@@ -1437,19 +1437,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-1624.736068019442</v>
+        <v>-2208.57</v>
       </c>
       <c r="C39" t="n">
-        <v>-270.6488052058083</v>
+        <v>-347.8660743801653</v>
       </c>
       <c r="D39" t="n">
-        <v>-363.1424453296964</v>
+        <v>-467.264016430442</v>
       </c>
       <c r="E39" t="n">
-        <v>-205.0660601384442</v>
+        <v>-256.865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.6082916855597642</v>
+        <v>0.3514649715596276</v>
       </c>
       <c r="G39" t="n">
         <v>7</v>
@@ -1463,19 +1463,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-2095.044944749241</v>
+        <v>-2371.88</v>
       </c>
       <c r="C40" t="n">
-        <v>-373.0430233662884</v>
+        <v>-447.5834887839433</v>
       </c>
       <c r="D40" t="n">
-        <v>-468.176592979327</v>
+        <v>-568.8071441317252</v>
       </c>
       <c r="E40" t="n">
-        <v>-315.5467511215575</v>
+        <v>-372.3449999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2339584582446308</v>
+        <v>-0.1307406696110633</v>
       </c>
       <c r="G40" t="n">
         <v>8</v>
@@ -1489,545 +1489,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-1792.705793537477</v>
+        <v>-2160.13</v>
       </c>
       <c r="C41" t="n">
-        <v>-319.9860335275488</v>
+        <v>-409.0928630460448</v>
       </c>
       <c r="D41" t="n">
-        <v>-425.5975514820797</v>
+        <v>-524.0745361729341</v>
       </c>
       <c r="E41" t="n">
-        <v>-235.1685998966913</v>
+        <v>-333.6399999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0.524948176641771</v>
+        <v>0.2796743743051138</v>
       </c>
       <c r="G41" t="n">
         <v>9</v>
       </c>
       <c r="H41" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-2454.283883164773</v>
-      </c>
-      <c r="C42" t="n">
-        <v>-460.9393491630265</v>
-      </c>
-      <c r="D42" t="n">
-        <v>-646.2966260618057</v>
-      </c>
-      <c r="E42" t="n">
-        <v>-334.2424851760888</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-0.1143499901171841</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-2551.45</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-473.2335311965973</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-632.3472595675569</v>
-      </c>
-      <c r="E43" t="n">
-        <v>-368.9029966806958</v>
-      </c>
-      <c r="F43" t="n">
-        <v>-0.1293297697167415</v>
-      </c>
-      <c r="G43" t="n">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-2374.119411094742</v>
-      </c>
-      <c r="C44" t="n">
-        <v>-371.4789576555888</v>
-      </c>
-      <c r="D44" t="n">
-        <v>-571.4917679441897</v>
-      </c>
-      <c r="E44" t="n">
-        <v>-233.1757616598929</v>
-      </c>
-      <c r="F44" t="n">
-        <v>-0.4666172619365123</v>
-      </c>
-      <c r="G44" t="n">
-        <v>2</v>
-      </c>
-      <c r="H44" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-1623.7</v>
-      </c>
-      <c r="C45" t="n">
-        <v>-281.7760548049134</v>
-      </c>
-      <c r="D45" t="n">
-        <v>-369.6745242841004</v>
-      </c>
-      <c r="E45" t="n">
-        <v>-222.8093479302144</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.119065413799806</v>
-      </c>
-      <c r="G45" t="n">
-        <v>3</v>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-1637.46131179553</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-324.9604937717049</v>
-      </c>
-      <c r="D46" t="n">
-        <v>-418.5121475587379</v>
-      </c>
-      <c r="E46" t="n">
-        <v>-252.6344463923826</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.425995949735982</v>
-      </c>
-      <c r="G46" t="n">
-        <v>4</v>
-      </c>
-      <c r="H46" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-2179.11794603953</v>
-      </c>
-      <c r="C47" t="n">
-        <v>-392.5097625266134</v>
-      </c>
-      <c r="D47" t="n">
-        <v>-513.6359171489941</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-304.1059366513397</v>
-      </c>
-      <c r="F47" t="n">
-        <v>0.390554642019555</v>
-      </c>
-      <c r="G47" t="n">
-        <v>5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-1948.639161272728</v>
-      </c>
-      <c r="C48" t="n">
-        <v>-469.7109588401618</v>
-      </c>
-      <c r="D48" t="n">
-        <v>-582.6588870042688</v>
-      </c>
-      <c r="E48" t="n">
-        <v>-388.5637342966915</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.01338317658819144</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6</v>
-      </c>
-      <c r="H48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-1821.21</v>
-      </c>
-      <c r="C49" t="n">
-        <v>-299.703099327413</v>
-      </c>
-      <c r="D49" t="n">
-        <v>-401.4122943503354</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-231.8491596037498</v>
-      </c>
-      <c r="F49" t="n">
-        <v>0.5213808157363357</v>
-      </c>
-      <c r="G49" t="n">
-        <v>7</v>
-      </c>
-      <c r="H49" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-2349.007832889868</v>
-      </c>
-      <c r="C50" t="n">
-        <v>-404.1140623815262</v>
-      </c>
-      <c r="D50" t="n">
-        <v>-514.2480814803887</v>
-      </c>
-      <c r="E50" t="n">
-        <v>-332.7175803502539</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.07577377344358316</v>
-      </c>
-      <c r="G50" t="n">
-        <v>8</v>
-      </c>
-      <c r="H50" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-2107.53</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-358.2613852948924</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-473.1166551145265</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-273.5203950866442</v>
-      </c>
-      <c r="F51" t="n">
-        <v>0.4129444186236874</v>
-      </c>
-      <c r="G51" t="n">
-        <v>9</v>
-      </c>
-      <c r="H51" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-2364.46</v>
-      </c>
-      <c r="C52" t="n">
-        <v>-432.7762780315138</v>
-      </c>
-      <c r="D52" t="n">
-        <v>-585.863961981872</v>
-      </c>
-      <c r="E52" t="n">
-        <v>-324.8133277709754</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.08430381550347055</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>-2348.101433168539</v>
-      </c>
-      <c r="C53" t="n">
-        <v>-453.275822538995</v>
-      </c>
-      <c r="D53" t="n">
-        <v>-587.7349735913032</v>
-      </c>
-      <c r="E53" t="n">
-        <v>-381.5578610512899</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0.02439826510158449</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>-2317.677145694649</v>
-      </c>
-      <c r="C54" t="n">
-        <v>-338.536726969461</v>
-      </c>
-      <c r="D54" t="n">
-        <v>-541.3474628189326</v>
-      </c>
-      <c r="E54" t="n">
-        <v>-201.6849449589862</v>
-      </c>
-      <c r="F54" t="n">
-        <v>-0.315979262678977</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-1285.463700119305</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-247.8237556164009</v>
-      </c>
-      <c r="D55" t="n">
-        <v>-319.4276806191107</v>
-      </c>
-      <c r="E55" t="n">
-        <v>-202.7057707999037</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.3422668790538559</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>-1183.933607015242</v>
-      </c>
-      <c r="C56" t="n">
-        <v>-288.2817697621439</v>
-      </c>
-      <c r="D56" t="n">
-        <v>-370.3533977575622</v>
-      </c>
-      <c r="E56" t="n">
-        <v>-227.7632956465364</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0.5504981460511407</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>-2014.499881996686</v>
-      </c>
-      <c r="C57" t="n">
-        <v>-363.2702722752195</v>
-      </c>
-      <c r="D57" t="n">
-        <v>-465.1765025612103</v>
-      </c>
-      <c r="E57" t="n">
-        <v>-289.3418808123618</v>
-      </c>
-      <c r="F57" t="n">
-        <v>0.5001271589773679</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>-2187.557137858409</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-452.4791603083515</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-544.762485665</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-413.4949174628759</v>
-      </c>
-      <c r="F58" t="n">
-        <v>0.1375495513646275</v>
-      </c>
-      <c r="G58" t="n">
-        <v>6</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>-1497.609645359435</v>
-      </c>
-      <c r="C59" t="n">
-        <v>-259.7493210437882</v>
-      </c>
-      <c r="D59" t="n">
-        <v>-347.8036343873346</v>
-      </c>
-      <c r="E59" t="n">
-        <v>-200.1284234296435</v>
-      </c>
-      <c r="F59" t="n">
-        <v>0.6406836376199878</v>
-      </c>
-      <c r="G59" t="n">
-        <v>7</v>
-      </c>
-      <c r="H59" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>-2061.09431240503</v>
-      </c>
-      <c r="C60" t="n">
-        <v>-364.8001134077392</v>
-      </c>
-      <c r="D60" t="n">
-        <v>-452.5940669157164</v>
-      </c>
-      <c r="E60" t="n">
-        <v>-311.1338268642188</v>
-      </c>
-      <c r="F60" t="n">
-        <v>0.2841028378021206</v>
-      </c>
-      <c r="G60" t="n">
-        <v>8</v>
-      </c>
-      <c r="H60" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>-1433.186962699765</v>
-      </c>
-      <c r="C61" t="n">
-        <v>-300.0399536576112</v>
-      </c>
-      <c r="D61" t="n">
-        <v>-397.5152853706285</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-226.6470019672803</v>
-      </c>
-      <c r="F61" t="n">
-        <v>0.5855707367938585</v>
-      </c>
-      <c r="G61" t="n">
-        <v>9</v>
-      </c>
-      <c r="H61" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
